--- a/data/trans_camb/BARTHEL_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>8.929662106583574</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>19.87475331432711</v>
+        <v>19.8747533143271</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>10.57789315665485</v>
@@ -664,7 +664,7 @@
         <v>5.585360445858645</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>17.38986816545603</v>
+        <v>17.38986816545601</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.089234363144764</v>
+        <v>-2.876599199752013</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.785326051095632</v>
+        <v>-6.902762364432355</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.888371118527543</v>
+        <v>2.640770798215414</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.831850006025915</v>
+        <v>5.680095643424813</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9898918354782874</v>
+        <v>0.9438024400281136</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.97672312923928</v>
+        <v>11.42201388773228</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.677160743485296</v>
+        <v>4.366716248890758</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1813208671930382</v>
+        <v>0.08857295893038461</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>11.17205238884154</v>
+        <v>10.90180080041517</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.59305421157182</v>
+        <v>15.33502265127956</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.899247950644144</v>
+        <v>8.735349195747522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.50279831748822</v>
+        <v>23.82993799029718</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21.6168476175858</v>
+        <v>21.43516261691563</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.91418987115912</v>
+        <v>16.45677453116846</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>27.3241218198718</v>
+        <v>27.27841086867575</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>17.19543862050505</v>
+        <v>16.67918218344843</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.05049824682142</v>
+        <v>10.77413057484827</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>24.09478594548396</v>
+        <v>23.31924439258905</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.5015021913754709</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.116193672416049</v>
+        <v>1.116193672416048</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.641962285847531</v>
@@ -769,7 +769,7 @@
         <v>0.338970218927765</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.05537457722004</v>
+        <v>1.055374577220039</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1515147718380205</v>
+        <v>-0.1733607322074649</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3693968552758112</v>
+        <v>-0.3868408209604827</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0947694681770109</v>
+        <v>0.09238061944213553</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2845359966217144</v>
+        <v>0.2750428091736952</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04333861563763765</v>
+        <v>0.03937003854182062</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.535712524616899</v>
+        <v>0.5311911711552346</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2430886232792098</v>
+        <v>0.185898468766977</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.007630682167752715</v>
+        <v>0.0004895432010493481</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5642349557132539</v>
+        <v>0.5391904454153923</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.607840813212466</v>
+        <v>1.542008532306522</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9445546403377725</v>
+        <v>0.9332991680752795</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.350280227542444</v>
+        <v>2.389105287992467</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.527073255842244</v>
+        <v>1.440423063682684</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.09759337371407</v>
+        <v>1.147719874272763</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.883601359589984</v>
+        <v>1.883833672166964</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.229898565793184</v>
+        <v>1.157997783614785</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7881706202836344</v>
+        <v>0.7736733229712465</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.735988705686253</v>
+        <v>1.682375193338442</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>4.047905346922041</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8.04782914601863</v>
+        <v>8.047829146018632</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>18.18408180314596</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.793927281046844</v>
+        <v>1.617482768393246</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.26403295333532</v>
+        <v>-1.635182241679224</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.641076922557037</v>
+        <v>2.731566536071325</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10.97568592220009</v>
+        <v>10.73645630231689</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.36456002754064</v>
+        <v>0.4878728760373696</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.793490932867164</v>
+        <v>8.0564433313371</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.346258434262044</v>
+        <v>9.714057295484871</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.710376397798292</v>
+        <v>1.806498932497999</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.697123321802763</v>
+        <v>7.573757095413663</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.2097223040269</v>
+        <v>16.21665933126971</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.08669434103794</v>
+        <v>10.37520597148538</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.31151758179629</v>
+        <v>13.6036261326482</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25.63654581388826</v>
+        <v>25.34675885838981</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.9816948532848</v>
+        <v>16.02789493784802</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>19.19160769214695</v>
+        <v>19.36868751279912</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>19.7628564370218</v>
+        <v>19.46290568602808</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.23430212120544</v>
+        <v>11.22043876782067</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.0724164133133</v>
+        <v>15.62669725680655</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.5690890244769183</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.131432394126299</v>
+        <v>1.1314323941263</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.784530943753701</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1381491279724407</v>
+        <v>0.1188763077153099</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.160815649631329</v>
+        <v>-0.2110769764112153</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.219786047871768</v>
+        <v>0.2049534565035417</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.7663612028609154</v>
+        <v>0.7655410895632058</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07829616077333768</v>
+        <v>0.01305227768516056</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5381946088550669</v>
+        <v>0.5754032146167347</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8550614166441959</v>
+        <v>0.848289508291347</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1508392299933482</v>
+        <v>0.1541696969363456</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.6469618662085624</v>
+        <v>0.649337747635607</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.404763787582784</v>
+        <v>3.662404279038351</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.162209899419421</v>
+        <v>2.408488588722816</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.205115163944993</v>
+        <v>3.026429436091859</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.921532593944177</v>
+        <v>3.706760890185652</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.23424023665498</v>
+        <v>2.21237309242125</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.818343759782091</v>
+        <v>2.92947661679395</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.037793362505589</v>
+        <v>2.952587993404817</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.683018591419904</v>
+        <v>1.741169973595255</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.463669003859898</v>
+        <v>2.367141386217135</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>3.386418388527166</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.100462237552458</v>
+        <v>5.100462237552462</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>9.219277636877759</v>
@@ -1083,7 +1083,7 @@
         <v>12.17223001906889</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.68833973517453</v>
+        <v>9.688339735174537</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>7.952295619332361</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7736942728523588</v>
+        <v>0.3555705233634717</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.454167254696115</v>
+        <v>-1.680839406238706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3321410984283609</v>
+        <v>0.193546813495858</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.396830621397178</v>
+        <v>1.292772681654852</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.175521617816637</v>
+        <v>3.842122209933255</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.812069849119353</v>
+        <v>3.304882691874265</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.145490777005644</v>
+        <v>2.842948398901002</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.44011769408129</v>
+        <v>3.10970073141978</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.446905328848208</v>
+        <v>3.227791349328773</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.97712135516333</v>
+        <v>12.78280915463607</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.893847146849833</v>
+        <v>9.125737768964205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.408368272965678</v>
+        <v>9.628895119011617</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.7129254607108</v>
+        <v>16.98895976658923</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>20.86690176219528</v>
+        <v>20.46399107703543</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.77870602694709</v>
+        <v>15.63308533510561</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.66423973635238</v>
+        <v>12.81098587957489</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.49444757830139</v>
+        <v>13.81885709327143</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.01590504604826</v>
+        <v>11.04372976524116</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.7423969093676267</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.118162898693715</v>
+        <v>1.118162898693716</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.972212061221954</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05454863884582821</v>
+        <v>-0.04004151609457893</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3252475905243216</v>
+        <v>-0.3053181567297015</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.106256148239489</v>
+        <v>-0.05011137906737962</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03153033743373858</v>
+        <v>0.03938355123400943</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1744786453583612</v>
+        <v>0.1933349626131907</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1664971760621571</v>
+        <v>0.1917137148406926</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2895699032753081</v>
+        <v>0.2699015208903036</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3214196443004637</v>
+        <v>0.2709375995004585</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3780763953003585</v>
+        <v>0.3300802357270998</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>5.534735958761233</v>
+        <v>5.5373021229093</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.924079499137763</v>
+        <v>4.103685329053953</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.78645846109313</v>
+        <v>4.447116352702225</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.781128094627066</v>
+        <v>2.875048862132933</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.238162408528467</v>
+        <v>3.430702074896227</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.971473403275215</v>
+        <v>2.774497495485826</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.571432075955824</v>
+        <v>2.602472294987001</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.928352991897231</v>
+        <v>2.711615922350653</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.420147782021069</v>
+        <v>2.464265903589049</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>2.07750146341969</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.5121276869099717</v>
+        <v>0.5121276869099745</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>9.802075053358537</v>
@@ -1306,7 +1306,7 @@
         <v>8.189865736028965</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.002843522032066</v>
+        <v>5.002843522032065</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.805066713496582</v>
+        <v>3.913307626966562</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.043618869052964</v>
+        <v>5.235585617677968</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.305847740034309</v>
+        <v>3.145705606871561</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-9.743303934608589</v>
+        <v>-12.88203341192957</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.92124532921587</v>
+        <v>-14.61418231472112</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-17.0401254509799</v>
+        <v>-15.12209331737516</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7696110673290094</v>
+        <v>0.8859560372291297</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.4271412691758357</v>
+        <v>-0.1448548733288569</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.626576580678459</v>
+        <v>-2.420762194243534</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.57017086462788</v>
+        <v>23.68795976309434</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.97758378509136</v>
+        <v>20.39526469072658</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.41886471749221</v>
+        <v>12.42817901842698</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.37755623020773</v>
+        <v>19.22231383021092</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.39443418210233</v>
+        <v>14.97044761933413</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.4953424236433</v>
+        <v>9.835188678061797</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>17.46912815367373</v>
+        <v>18.38859994492896</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>15.62083262068961</v>
+        <v>15.5488516882159</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.62720198261837</v>
+        <v>10.17616596496387</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1424681204936131</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03512000847725309</v>
+        <v>0.03512000847725329</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.327024016817441</v>
@@ -1411,7 +1411,7 @@
         <v>1.108759978581971</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6772947023948146</v>
+        <v>0.6772947023948144</v>
       </c>
     </row>
     <row r="26">
@@ -1425,22 +1425,22 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.4230272416078956</v>
+        <v>-0.5131573381618972</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5530423281259327</v>
+        <v>-0.5808713497740409</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.537960338687585</v>
+        <v>-0.5394151149827583</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.03424504507078503</v>
+        <v>-0.03361894775987415</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1925222750638421</v>
+        <v>-0.07208550594053088</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2146012928506316</v>
+        <v>-0.2060484487390023</v>
       </c>
     </row>
     <row r="27">
@@ -1454,22 +1454,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>3.301454379903348</v>
+        <v>3.325731817982564</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.243225381588895</v>
+        <v>2.635714434057324</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.915844243915974</v>
+        <v>1.564726898644872</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5.311354998364457</v>
+        <v>5.508487732932251</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4.221812634071636</v>
+        <v>5.324783204108437</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.733855951289876</v>
+        <v>3.62756828783078</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1499,7 @@
         <v>8.286971168355791</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>9.538405319156057</v>
+        <v>9.538405319156054</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>10.30433841197022</v>
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.741823266547929</v>
+        <v>3.716028286629702</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8315796082445875</v>
+        <v>0.8147167146165488</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.959535554594035</v>
+        <v>1.985148016843705</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.006302307406617</v>
+        <v>8.145827443404825</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.94171692385171</v>
+        <v>3.828762719569174</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.886317351489688</v>
+        <v>5.782583821080642</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.919504600919606</v>
+        <v>7.206513015131081</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.584827656022506</v>
+        <v>3.762059793071784</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.258317934831076</v>
+        <v>4.447663262879008</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.40923743457303</v>
+        <v>11.70734663235915</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.732274318680632</v>
+        <v>7.869585851585846</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.267826211238004</v>
+        <v>8.231612896624107</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.5812380005626</v>
+        <v>16.48336181614756</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.26263670054108</v>
+        <v>12.51348341919412</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.9731993497421</v>
+        <v>12.6824209284569</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>13.24907045980113</v>
+        <v>13.37636017328057</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.328550338942753</v>
+        <v>9.575731502685237</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>9.83248034275619</v>
+        <v>9.61853608100863</v>
       </c>
     </row>
     <row r="31">
@@ -1604,7 +1604,7 @@
         <v>0.6170412795892686</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7102220707425114</v>
+        <v>0.7102220707425112</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.9422833432231199</v>
@@ -1624,31 +1624,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.3884051882113752</v>
+        <v>0.3935749003980198</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.08406020784054405</v>
+        <v>0.07026614967344472</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.221060616148842</v>
+        <v>0.2021213773903656</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.5131502535089998</v>
+        <v>0.5270183827543</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2352272313435676</v>
+        <v>0.2390375101665612</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3621140649742061</v>
+        <v>0.3587461031800703</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5634998110604239</v>
+        <v>0.5776350532605782</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2845972626343879</v>
+        <v>0.3037228228211051</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4303411971051518</v>
+        <v>0.3522718681381378</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1659,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.893673171876616</v>
+        <v>1.967971341887752</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.306879279698204</v>
+        <v>1.300326574092129</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.40076439923259</v>
+        <v>1.394213859429999</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.466612502562176</v>
+        <v>1.434871396751479</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.056545274928215</v>
+        <v>1.065263508317344</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.157171956770854</v>
+        <v>1.150697619380131</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.364949195439034</v>
+        <v>1.377917049888234</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9907911119380747</v>
+        <v>0.9689007629396007</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.04839564945873</v>
+        <v>1.002063686866498</v>
       </c>
     </row>
     <row r="34">
